--- a/2. IMPLEMENTARE/00. CONTRACT_BUGET_CONTURI/20170510_BUGET CLOUDIFIER_TVA_19_MODIFICAT_LICENTE.xlsx
+++ b/2. IMPLEMENTARE/00. CONTRACT_BUGET_CONTURI/20170510_BUGET CLOUDIFIER_TVA_19_MODIFICAT_LICENTE.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="80">
   <si>
     <t>Cod</t>
   </si>
@@ -360,6 +360,15 @@
   </si>
   <si>
     <t>REGIE TOTALA</t>
+  </si>
+  <si>
+    <t>REGIE ECHI</t>
+  </si>
+  <si>
+    <t>REGIE FINALA</t>
+  </si>
+  <si>
+    <t>dif</t>
   </si>
 </sst>
 </file>
@@ -934,6 +943,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -951,21 +975,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1262,10 +1271,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:S54"/>
+  <dimension ref="B1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2324,7 +2333,7 @@
         <v>106370.96774193548</v>
       </c>
     </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D49" s="58" t="s">
         <v>7</v>
       </c>
@@ -2339,7 +2348,7 @@
         <v>15967.741935483869</v>
       </c>
     </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D50" s="58" t="s">
         <v>8</v>
       </c>
@@ -2354,7 +2363,7 @@
         <v>122338.70967741935</v>
       </c>
     </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D51" s="58" t="s">
         <v>9</v>
       </c>
@@ -2368,21 +2377,56 @@
         <v>122439.51612903226</v>
       </c>
     </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D53" s="58" t="s">
         <v>12</v>
       </c>
       <c r="E53" s="58">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="G53" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="H53" s="58">
+        <v>15449.282499999999</v>
+      </c>
+      <c r="I53" s="58">
+        <f>H53*0.9</f>
+        <v>13904.35425</v>
+      </c>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D54" s="58" t="s">
         <v>13</v>
       </c>
       <c r="E54" s="58">
         <f>E50-E53</f>
         <v>1</v>
+      </c>
+      <c r="G54" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" s="58">
+        <f>(E6+E11)*0.25</f>
+        <v>106370.96774193548</v>
+      </c>
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="G55" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="H55" s="58">
+        <f>H53+H54</f>
+        <v>121820.25024193549</v>
+      </c>
+    </row>
+    <row r="57" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="G57" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="H57" s="58">
+        <f>H51-H55</f>
+        <v>619.26588709677162</v>
       </c>
     </row>
   </sheetData>
@@ -2537,11 +2581,11 @@
       <c r="B4" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
       <c r="H4" s="111"/>
       <c r="K4" s="7">
         <f t="shared" ref="K4:K5" si="0">(M4+N4)*20</f>
@@ -2572,10 +2616,10 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="120"/>
+      <c r="C5" s="114"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
       <c r="F5" s="13"/>
@@ -2710,10 +2754,10 @@
       </c>
     </row>
     <row r="10" spans="2:18" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="122"/>
+      <c r="C10" s="116"/>
       <c r="D10" s="32"/>
       <c r="E10" s="36"/>
       <c r="F10" s="53"/>
@@ -2880,10 +2924,10 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="122"/>
+      <c r="C18" s="116"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="14"/>
@@ -3063,10 +3107,10 @@
       </c>
     </row>
     <row r="29" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="121" t="s">
+      <c r="B29" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="122"/>
+      <c r="C29" s="116"/>
       <c r="D29" s="33">
         <f>E29</f>
         <v>27900</v>
@@ -3162,10 +3206,10 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="114" t="s">
+      <c r="B34" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="115"/>
+      <c r="C34" s="120"/>
       <c r="D34" s="33">
         <f>E34</f>
         <v>160870.83333333334</v>
@@ -3186,10 +3230,10 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="117"/>
+      <c r="C35" s="122"/>
       <c r="D35" s="33">
         <f>D31+D34</f>
         <v>914354.16666666674</v>
@@ -3217,11 +3261,11 @@
       <c r="B36" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="118"/>
-      <c r="G36" s="118"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="112"/>
       <c r="H36" s="111"/>
     </row>
     <row r="37" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -3304,10 +3348,10 @@
       <c r="H41" s="42"/>
     </row>
     <row r="42" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B42" s="112" t="s">
+      <c r="B42" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="113"/>
+      <c r="C42" s="118"/>
       <c r="D42" s="33">
         <f>D35+D41</f>
         <v>932754.16666666674</v>
@@ -3391,12 +3435,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B31:C31"/>
@@ -3405,6 +3443,12 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
